--- a/manual_opt_results/results_1.xlsx
+++ b/manual_opt_results/results_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajad/PycharmProjects/EORScreeningAPP/manual_opt_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B433C6D-47CC-8C4A-B012-BDE10D2CA626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466F578-0E2E-AD4F-86EA-216A742C3DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="27">
   <si>
     <t>batch_size</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>num_epochs</t>
-  </si>
-  <si>
-    <t>pca_enabled</t>
   </si>
   <si>
     <t>train_acc</t>
@@ -244,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -286,7 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J21" sqref="A21:J21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,7 +598,7 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,11 +626,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>32</v>
       </c>
@@ -654,19 +647,16 @@
         <v>200</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="H2">
-        <v>0.93600000000000005</v>
+        <v>0.87</v>
       </c>
       <c r="I2">
-        <v>0.87</v>
-      </c>
-      <c r="J2">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
@@ -686,19 +676,16 @@
         <v>200</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="H3">
-        <v>0.94099999999999995</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="I3">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="J3">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>32</v>
       </c>
@@ -718,19 +705,16 @@
         <v>200</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="H4">
-        <v>0.92300000000000004</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="I4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="J4">
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>32</v>
       </c>
@@ -750,19 +734,16 @@
         <v>200</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="H5">
-        <v>0.93500000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="I5">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="J5">
         <v>0.745</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>32</v>
       </c>
@@ -782,19 +763,16 @@
         <v>200</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="H6" s="2">
-        <v>0.93</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="I6" s="2">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="J6" s="2">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -814,19 +792,16 @@
         <v>200</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="H7">
         <v>0.93899999999999995</v>
       </c>
       <c r="I7">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="J7">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32</v>
       </c>
@@ -846,19 +821,16 @@
         <v>200</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H8">
-        <v>0.93200000000000005</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I8">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="J8">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32</v>
       </c>
@@ -878,19 +850,16 @@
         <v>200</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="H9">
-        <v>0.92400000000000004</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="I9">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="J9">
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>32</v>
       </c>
@@ -910,19 +879,16 @@
         <v>200</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="H10" s="2">
-        <v>0.92800000000000005</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="I10" s="2">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="J10" s="2">
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32</v>
       </c>
@@ -942,19 +908,16 @@
         <v>200</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="H11">
         <v>0.93</v>
       </c>
       <c r="I11">
-        <v>0.93</v>
-      </c>
-      <c r="J11">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>32</v>
       </c>
@@ -974,19 +937,16 @@
         <v>200</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="H12">
-        <v>0.93400000000000005</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="I12">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="J12">
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>32</v>
       </c>
@@ -1006,19 +966,16 @@
         <v>200</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H13">
-        <v>0.93200000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="I13">
-        <v>0.93</v>
-      </c>
-      <c r="J13">
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32</v>
       </c>
@@ -1038,19 +995,16 @@
         <v>200</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="H14">
-        <v>0.91500000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="I14">
-        <v>0.85</v>
-      </c>
-      <c r="J14">
         <v>0.755</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1070,19 +1024,16 @@
         <v>200</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="H15">
-        <v>0.90500000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I15">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="J15">
         <v>0.747</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>32</v>
       </c>
@@ -1102,19 +1053,16 @@
         <v>200</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="H16">
-        <v>0.91500000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="I16">
-        <v>0.95</v>
-      </c>
-      <c r="J16">
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
@@ -1134,19 +1082,16 @@
         <v>200</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="H17">
-        <v>0.92100000000000004</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="I17">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="J17">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1166,19 +1111,16 @@
         <v>100</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="H18">
-        <v>0.93899999999999995</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="I18">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="J18">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>32</v>
       </c>
@@ -1198,19 +1140,16 @@
         <v>300</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="H19">
-        <v>0.94299999999999995</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="I19">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J19">
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>32</v>
       </c>
@@ -1230,19 +1169,16 @@
         <v>400</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="H20">
-        <v>0.92900000000000005</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I20">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J20">
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>32</v>
       </c>
@@ -1262,48 +1198,13 @@
         <v>500</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="H21" s="2">
-        <v>0.90500000000000003</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="I21" s="2">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="J21" s="2">
         <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>32</v>
-      </c>
-      <c r="C22">
-        <v>0.05</v>
-      </c>
-      <c r="D22">
-        <v>0.8</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>200</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="I22">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="J22">
-        <v>0.755</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96BA771-DD2E-724F-AAB3-25E4F4037473}">
   <dimension ref="A1:J365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J356" sqref="J356"/>
     </sheetView>
   </sheetViews>
@@ -1327,36 +1228,36 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8">
         <v>1.778</v>
@@ -1385,7 +1286,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12">
         <v>2.556</v>
@@ -1414,7 +1315,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>1.698</v>
@@ -1443,7 +1344,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12">
         <v>2.6419999999999999</v>
@@ -1472,7 +1373,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8">
         <v>2.238</v>
@@ -1495,13 +1396,13 @@
       <c r="H6" s="10">
         <v>76.099999999999994</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12">
         <v>1.9339999999999999</v>
@@ -1530,7 +1431,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <v>2.673</v>
@@ -1559,7 +1460,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12">
         <v>1.929</v>
@@ -1582,13 +1483,13 @@
       <c r="H9" s="14">
         <v>55</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>3</v>
@@ -1611,13 +1512,13 @@
       <c r="H10" s="10">
         <v>65.5</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="12">
         <v>2.9289999999999998</v>
@@ -1646,7 +1547,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8">
         <v>2.73</v>
@@ -1675,7 +1576,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="12">
         <v>2.673</v>
@@ -1704,7 +1605,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8">
         <v>3.3010000000000002</v>
@@ -1733,7 +1634,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12">
         <v>2.7629999999999999</v>
@@ -1756,13 +1657,13 @@
       <c r="H15" s="14">
         <v>70</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8">
         <v>2.94</v>
@@ -1785,13 +1686,13 @@
       <c r="H16" s="10">
         <v>72</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="12">
         <v>2.238</v>
@@ -1814,13 +1715,13 @@
       <c r="H17" s="14">
         <v>68</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
         <v>2.9580000000000002</v>
@@ -1843,13 +1744,13 @@
       <c r="H18" s="10">
         <v>65</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="12">
         <v>2.9420000000000002</v>
@@ -1878,7 +1779,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8">
         <v>2.9540000000000002</v>
@@ -1907,7 +1808,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="12">
         <v>2.9420000000000002</v>
@@ -1936,7 +1837,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8">
         <v>2.6139999999999999</v>
@@ -1965,7 +1866,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="12">
         <v>2.7930000000000001</v>
@@ -1988,13 +1889,13 @@
       <c r="H23" s="14">
         <v>70</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="8">
         <v>3</v>
@@ -2023,7 +1924,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="12">
         <v>2.6669999999999998</v>
@@ -2052,7 +1953,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="8">
         <v>2.2429999999999999</v>
@@ -2081,7 +1982,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="12">
         <v>2.1760000000000002</v>
@@ -2110,7 +2011,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="8">
         <v>2.5499999999999998</v>
@@ -2139,7 +2040,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="12">
         <v>1.7629999999999999</v>
@@ -2168,7 +2069,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="8">
         <v>2.2429999999999999</v>
@@ -2197,7 +2098,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="12">
         <v>2.431</v>
@@ -2226,7 +2127,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="8">
         <v>1.556</v>
@@ -2255,7 +2156,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="12">
         <v>3</v>
@@ -2284,7 +2185,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="8">
         <v>2.4769999999999999</v>
@@ -2313,7 +2214,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="12">
         <v>2.1459999999999999</v>
@@ -2342,7 +2243,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="8">
         <v>2.698</v>
@@ -2371,7 +2272,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="12">
         <v>2.875</v>
@@ -2400,7 +2301,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="8">
         <v>0.60199999999999998</v>
@@ -2429,7 +2330,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="12">
         <v>0.69799999999999995</v>
@@ -2458,7 +2359,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="8">
         <v>0.30099999999999999</v>
@@ -2487,7 +2388,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="12">
         <v>0.77800000000000002</v>
@@ -2516,7 +2417,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="8">
         <v>0.47699999999999998</v>
@@ -2545,7 +2446,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="12">
         <v>0.69799999999999995</v>
@@ -2574,7 +2475,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="8">
         <v>1.1759999999999999</v>
@@ -2603,7 +2504,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="12">
         <v>0.60199999999999998</v>
@@ -2632,7 +2533,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="8">
         <v>0.90300000000000002</v>
@@ -2661,7 +2562,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="12">
         <v>0.69799999999999995</v>
@@ -2690,7 +2591,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="8">
         <v>1.5049999999999999</v>
@@ -2719,7 +2620,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="12">
         <v>1.7929999999999999</v>
@@ -2748,7 +2649,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="8">
         <v>1.7929999999999999</v>
@@ -2777,7 +2678,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="12">
         <v>1.7929999999999999</v>
@@ -2806,7 +2707,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="8">
         <v>0.69799999999999995</v>
@@ -2835,7 +2736,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="12">
         <v>0.69799999999999995</v>
@@ -2864,7 +2765,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="8">
         <v>1.7929999999999999</v>
@@ -2893,7 +2794,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="12">
         <v>0.69799999999999995</v>
@@ -2922,7 +2823,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="8">
         <v>1.544</v>
@@ -2951,7 +2852,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" s="12">
         <v>0.77800000000000002</v>
@@ -2980,7 +2881,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="8">
         <v>1.845</v>
@@ -3009,7 +2910,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="12">
         <v>0.77800000000000002</v>
@@ -3038,7 +2939,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="8">
         <v>1.5680000000000001</v>
@@ -3067,7 +2968,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="12">
         <v>0.69799999999999995</v>
@@ -3096,7 +2997,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="8">
         <v>1</v>
@@ -3125,7 +3026,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="12">
         <v>0.30099999999999999</v>
@@ -3154,7 +3055,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="8">
         <v>1.5049999999999999</v>
@@ -3183,7 +3084,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="12">
         <v>1.875</v>
@@ -3212,7 +3113,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="8">
         <v>2.698</v>
@@ -3241,7 +3142,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="12">
         <v>0.90300000000000002</v>
@@ -3270,7 +3171,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="8">
         <v>0.60199999999999998</v>
@@ -3299,7 +3200,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="12">
         <v>0.30099999999999999</v>
@@ -3328,7 +3229,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="8">
         <v>0.60199999999999998</v>
@@ -3357,7 +3258,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="12">
         <v>0.60199999999999998</v>
@@ -3386,7 +3287,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" s="8">
         <v>0.60199999999999998</v>
@@ -3415,7 +3316,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" s="12">
         <v>1.698</v>
@@ -3444,7 +3345,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" s="8">
         <v>0.90300000000000002</v>
@@ -3473,7 +3374,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="12">
         <v>1.698</v>
@@ -3502,7 +3403,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="8">
         <v>0.69799999999999995</v>
@@ -3531,7 +3432,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" s="12">
         <v>0.30099999999999999</v>
@@ -3560,7 +3461,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="8">
         <v>1.262</v>
@@ -3589,7 +3490,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" s="12">
         <v>1.681</v>
@@ -3618,7 +3519,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80" s="8">
         <v>0.60199999999999998</v>
@@ -3647,7 +3548,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81" s="12">
         <v>0.30099999999999999</v>
@@ -3676,7 +3577,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82" s="8">
         <v>1.698</v>
@@ -3705,7 +3606,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B83" s="12">
         <v>0.47699999999999998</v>
@@ -3734,7 +3635,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B84" s="8">
         <v>1.845</v>
@@ -3763,7 +3664,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" s="12">
         <v>0.95399999999999996</v>
@@ -3792,7 +3693,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86" s="8">
         <v>1.7989999999999999</v>
@@ -3821,7 +3722,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" s="12">
         <v>1.698</v>
@@ -3850,7 +3751,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88" s="8">
         <v>2.0369999999999999</v>
@@ -3879,7 +3780,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="12">
         <v>1</v>
@@ -3908,7 +3809,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" s="8">
         <v>0.60199999999999998</v>
@@ -3937,7 +3838,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91" s="12">
         <v>0.77800000000000002</v>
@@ -3966,7 +3867,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" s="8">
         <v>0.69799999999999995</v>
@@ -3995,7 +3896,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93" s="12">
         <v>1.7989999999999999</v>
@@ -4024,7 +3925,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="8">
         <v>1.732</v>
@@ -4053,7 +3954,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95" s="12">
         <v>1.397</v>
@@ -4082,7 +3983,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" s="8">
         <v>1.4770000000000001</v>
@@ -4111,7 +4012,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97" s="12">
         <v>1.875</v>
@@ -4140,7 +4041,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98" s="8">
         <v>1.4770000000000001</v>
@@ -4169,7 +4070,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="12">
         <v>1.4770000000000001</v>
@@ -4198,7 +4099,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="8">
         <v>2.698</v>
@@ -4227,7 +4128,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" s="12">
         <v>0.875</v>
@@ -4256,7 +4157,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B102" s="8">
         <v>2.698</v>
@@ -4285,7 +4186,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" s="12">
         <v>1</v>
@@ -4314,7 +4215,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" s="8">
         <v>2.698</v>
@@ -4343,7 +4244,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="12">
         <v>0.60199999999999998</v>
@@ -4372,7 +4273,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="8">
         <v>1.7030000000000001</v>
@@ -4401,7 +4302,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="12">
         <v>3.0979999999999999</v>
@@ -4430,7 +4331,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" s="8">
         <v>1.3420000000000001</v>
@@ -4459,7 +4360,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109" s="12">
         <v>3</v>
@@ -4488,7 +4389,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" s="8">
         <v>1</v>
@@ -4517,7 +4418,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" s="12">
         <v>0.60199999999999998</v>
@@ -4546,7 +4447,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" s="8">
         <v>0.69799999999999995</v>
@@ -4575,7 +4476,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="12">
         <v>0.47699999999999998</v>
@@ -4604,7 +4505,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="8">
         <v>0.69799999999999995</v>
@@ -4633,7 +4534,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" s="12">
         <v>1.6990000000000001</v>
@@ -4662,7 +4563,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" s="8">
         <v>2.23</v>
@@ -4691,7 +4592,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B117" s="12">
         <v>1.0409999999999999</v>
@@ -4720,7 +4621,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B118" s="8">
         <v>1.0409999999999999</v>
@@ -4749,7 +4650,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B119" s="12">
         <v>1.6990000000000001</v>
@@ -4778,7 +4679,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B120" s="8">
         <v>1.6990000000000001</v>
@@ -4807,7 +4708,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B121" s="12">
         <v>1.6990000000000001</v>
@@ -4836,7 +4737,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B122" s="8">
         <v>3.0139999999999998</v>
@@ -4865,7 +4766,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123" s="12">
         <v>0.60199999999999998</v>
@@ -4894,7 +4795,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B124" s="8">
         <v>1.397</v>
@@ -4923,7 +4824,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B125" s="12">
         <v>0.69</v>
@@ -4952,7 +4853,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126" s="8">
         <v>0.30099999999999999</v>
@@ -4981,7 +4882,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B127" s="12">
         <v>0.748</v>
@@ -5010,7 +4911,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B128" s="8">
         <v>0.78500000000000003</v>
@@ -5039,7 +4940,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B129" s="12">
         <v>2.8860000000000001</v>
@@ -5068,7 +4969,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B130" s="8">
         <v>2</v>
@@ -5097,7 +4998,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B131" s="12">
         <v>1.397</v>
@@ -5126,7 +5027,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B132" s="8">
         <v>1.397</v>
@@ -5155,7 +5056,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" s="12">
         <v>1.397</v>
@@ -5184,7 +5085,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" s="8">
         <v>1.681</v>
@@ -5213,7 +5114,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B135" s="12">
         <v>1.6990000000000001</v>
@@ -5242,7 +5143,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B136" s="8">
         <v>1.6990000000000001</v>
@@ -5271,7 +5172,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B137" s="12">
         <v>1.698</v>
@@ -5300,7 +5201,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B138" s="8">
         <v>2.4470000000000001</v>
@@ -5329,7 +5230,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="12">
         <v>1.806</v>
@@ -5358,7 +5259,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B140" s="8">
         <v>0.30099999999999999</v>
@@ -5387,7 +5288,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B141" s="12">
         <v>1.6990000000000001</v>
@@ -5416,7 +5317,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B142" s="8">
         <v>1.883</v>
@@ -5445,7 +5346,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B143" s="12">
         <v>3</v>
@@ -5474,7 +5375,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" s="8">
         <v>1.6020000000000001</v>
@@ -5503,7 +5404,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B145" s="12">
         <v>2.5049999999999999</v>
@@ -5532,7 +5433,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B146" s="8">
         <v>3.1379999999999999</v>
@@ -5561,7 +5462,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B147" s="12">
         <v>3.294</v>
@@ -5590,7 +5491,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B148" s="8">
         <v>3.38</v>
@@ -5619,7 +5520,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" s="12">
         <v>3.4910000000000001</v>
@@ -5648,7 +5549,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B150" s="8">
         <v>2.7320000000000002</v>
@@ -5677,7 +5578,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B151" s="12">
         <v>2.9540000000000002</v>
@@ -5706,7 +5607,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B152" s="8">
         <v>3.0249999999999999</v>
@@ -5735,7 +5636,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B153" s="12">
         <v>3.3050000000000002</v>
@@ -5764,7 +5665,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B154" s="8">
         <v>2.819</v>
@@ -5793,7 +5694,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B155" s="12">
         <v>2.2549999999999999</v>
@@ -5822,7 +5723,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B156" s="8">
         <v>1.0409999999999999</v>
@@ -5851,7 +5752,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B157" s="12">
         <v>1.079</v>
@@ -5880,7 +5781,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B158" s="8">
         <v>2.4500000000000002</v>
@@ -5909,7 +5810,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B159" s="12">
         <v>3.0529999999999999</v>
@@ -5938,7 +5839,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B160" s="8">
         <v>1.698</v>
@@ -5967,7 +5868,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B161" s="12">
         <v>1.633</v>
@@ -5996,7 +5897,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B162" s="8">
         <v>2.19</v>
@@ -6025,7 +5926,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B163" s="12">
         <v>2.4769999999999999</v>
@@ -6054,7 +5955,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B164" s="8">
         <v>2.6019999999999999</v>
@@ -6083,7 +5984,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B165" s="12">
         <v>2.4769999999999999</v>
@@ -6112,7 +6013,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B166" s="8">
         <v>2.1349999999999998</v>
@@ -6141,7 +6042,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B167" s="12">
         <v>1.732</v>
@@ -6170,7 +6071,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B168" s="8">
         <v>3.4060000000000001</v>
@@ -6199,7 +6100,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B169" s="12">
         <v>3.4060000000000001</v>
@@ -6228,7 +6129,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B170" s="8">
         <v>2.4769999999999999</v>
@@ -6257,7 +6158,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B171" s="12">
         <v>2.698</v>
@@ -6286,7 +6187,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B172" s="8">
         <v>2.3010000000000002</v>
@@ -6315,7 +6216,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B173" s="12">
         <v>2.3010000000000002</v>
@@ -6344,7 +6245,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B174" s="8">
         <v>2</v>
@@ -6373,7 +6274,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B175" s="12">
         <v>2.1760000000000002</v>
@@ -6402,7 +6303,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B176" s="8">
         <v>2.2040000000000002</v>
@@ -6431,7 +6332,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B177" s="12">
         <v>3.4060000000000001</v>
@@ -6460,7 +6361,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B178" s="8">
         <v>3.4060000000000001</v>
@@ -6489,7 +6390,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B179" s="12">
         <v>2.3980000000000001</v>
@@ -6518,7 +6419,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B180" s="8">
         <v>2.3540000000000001</v>
@@ -6547,7 +6448,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B181" s="12">
         <v>2.6230000000000002</v>
@@ -6576,7 +6477,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B182" s="8">
         <v>3</v>
@@ -6605,7 +6506,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B183" s="12">
         <v>2.6019999999999999</v>
@@ -6634,7 +6535,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B184" s="8">
         <v>2.7029999999999998</v>
@@ -6663,7 +6564,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B185" s="12">
         <v>2.3010000000000002</v>
@@ -6692,7 +6593,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B186" s="8">
         <v>2.113</v>
@@ -6721,7 +6622,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B187" s="12">
         <v>1.698</v>
@@ -6750,7 +6651,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B188" s="8">
         <v>2.3010000000000002</v>
@@ -6779,7 +6680,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B189" s="12">
         <v>2.4390000000000001</v>
@@ -6808,7 +6709,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B190" s="8">
         <v>1.3009999999999999</v>
@@ -6837,7 +6738,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B191" s="12">
         <v>1.3009999999999999</v>
@@ -6866,7 +6767,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B192" s="8">
         <v>1.9630000000000001</v>
@@ -6895,7 +6796,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B193" s="12">
         <v>1</v>
@@ -6924,7 +6825,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B194" s="8">
         <v>1</v>
@@ -6953,7 +6854,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B195" s="12">
         <v>1</v>
@@ -6982,7 +6883,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B196" s="8">
         <v>1</v>
@@ -7011,7 +6912,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B197" s="12">
         <v>1</v>
@@ -7040,7 +6941,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B198" s="8">
         <v>1</v>
@@ -7069,7 +6970,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B199" s="12">
         <v>1</v>
@@ -7098,7 +6999,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B200" s="8">
         <v>1</v>
@@ -7127,7 +7028,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B201" s="12">
         <v>1.1759999999999999</v>
@@ -7156,7 +7057,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B202" s="8">
         <v>1</v>
@@ -7185,7 +7086,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B203" s="12">
         <v>1.929</v>
@@ -7214,7 +7115,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B204" s="8">
         <v>1</v>
@@ -7243,7 +7144,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B205" s="12">
         <v>4.0599999999999996</v>
@@ -7272,7 +7173,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B206" s="8">
         <v>3.74</v>
@@ -7301,7 +7202,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B207" s="12">
         <v>3.6019999999999999</v>
@@ -7330,7 +7231,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B208" s="8">
         <v>4.0599999999999996</v>
@@ -7359,7 +7260,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B209" s="12">
         <v>3.3519999999999999</v>
@@ -7388,7 +7289,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B210" s="8">
         <v>3.778</v>
@@ -7417,7 +7318,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B211" s="12">
         <v>3.1019999999999999</v>
@@ -7446,7 +7347,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B212" s="8">
         <v>2.9769999999999999</v>
@@ -7475,7 +7376,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B213" s="12">
         <v>2.968</v>
@@ -7504,7 +7405,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B214" s="8">
         <v>2.8119999999999998</v>
@@ -7533,7 +7434,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B215" s="12">
         <v>2.968</v>
@@ -7562,7 +7463,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B216" s="8">
         <v>3.423</v>
@@ -7591,7 +7492,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B217" s="12">
         <v>3.423</v>
@@ -7620,7 +7521,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B218" s="8">
         <v>2.0510000000000002</v>
@@ -7649,7 +7550,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B219" s="12">
         <v>0.60199999999999998</v>
@@ -7678,7 +7579,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B220" s="8">
         <v>1</v>
@@ -7707,7 +7608,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B221" s="12">
         <v>1</v>
@@ -7736,7 +7637,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B222" s="8">
         <v>-0.69799999999999995</v>
@@ -7765,7 +7666,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B223" s="12">
         <v>3.544</v>
@@ -7794,7 +7695,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B224" s="8">
         <v>3.698</v>
@@ -7823,7 +7724,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B225" s="12">
         <v>3.698</v>
@@ -7852,7 +7753,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B226" s="8">
         <v>3.74</v>
@@ -7881,7 +7782,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B227" s="12">
         <v>3.698</v>
@@ -7910,7 +7811,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B228" s="8">
         <v>3.0790000000000002</v>
@@ -7939,7 +7840,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B229" s="12">
         <v>2.6819999999999999</v>
@@ -7968,7 +7869,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B230" s="8">
         <v>3.0409999999999999</v>
@@ -7997,7 +7898,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B231" s="12">
         <v>2.5310000000000001</v>
@@ -8026,7 +7927,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B232" s="8">
         <v>2.4390000000000001</v>
@@ -8055,7 +7956,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B233" s="12">
         <v>2.3969999999999998</v>
@@ -8084,7 +7985,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B234" s="8">
         <v>2.3969999999999998</v>
@@ -8113,7 +8014,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B235" s="12">
         <v>2.3969999999999998</v>
@@ -8142,7 +8043,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B236" s="8">
         <v>3.698</v>
@@ -8171,7 +8072,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B237" s="12">
         <v>3.4470000000000001</v>
@@ -8200,7 +8101,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B238" s="8">
         <v>3.2240000000000002</v>
@@ -8229,7 +8130,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B239" s="12">
         <v>3.4769999999999999</v>
@@ -8258,7 +8159,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B240" s="8">
         <v>3.359</v>
@@ -8287,7 +8188,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B241" s="12">
         <v>3.2040000000000002</v>
@@ -8316,7 +8217,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B242" s="8">
         <v>2.3969999999999998</v>
@@ -8345,7 +8246,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B243" s="12">
         <v>3.6019999999999999</v>
@@ -8374,7 +8275,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B244" s="8">
         <v>3.6019999999999999</v>
@@ -8403,7 +8304,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B245" s="12">
         <v>3.5009999999999999</v>
@@ -8432,7 +8333,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B246" s="8">
         <v>3.903</v>
@@ -8461,7 +8362,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B247" s="12">
         <v>3.3969999999999998</v>
@@ -8490,7 +8391,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B248" s="8">
         <v>3.113</v>
@@ -8519,7 +8420,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B249" s="12">
         <v>3.3519999999999999</v>
@@ -8548,7 +8449,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B250" s="8">
         <v>3.3969999999999998</v>
@@ -8577,7 +8478,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B251" s="12">
         <v>3.2669999999999999</v>
@@ -8606,7 +8507,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B252" s="8">
         <v>3.3010000000000002</v>
@@ -8635,7 +8536,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B253" s="12">
         <v>3.3969999999999998</v>
@@ -8664,7 +8565,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B254" s="8">
         <v>2.6819999999999999</v>
@@ -8693,7 +8594,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B255" s="12">
         <v>3.3969999999999998</v>
@@ -8722,7 +8623,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B256" s="8">
         <v>3.698</v>
@@ -8751,7 +8652,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B257" s="12">
         <v>3.1760000000000002</v>
@@ -8780,7 +8681,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B258" s="8">
         <v>3.6019999999999999</v>
@@ -8809,7 +8710,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B259" s="12">
         <v>3.0960000000000001</v>
@@ -8838,7 +8739,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B260" s="8">
         <v>3.2040000000000002</v>
@@ -8867,7 +8768,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B261" s="12">
         <v>3.2040000000000002</v>
@@ -8896,7 +8797,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B262" s="8">
         <v>2.875</v>
@@ -8925,7 +8826,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B263" s="12">
         <v>2.4769999999999999</v>
@@ -8954,7 +8855,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B264" s="8">
         <v>2.544</v>
@@ -8983,7 +8884,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B265" s="12">
         <v>2.698</v>
@@ -9012,7 +8913,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B266" s="8">
         <v>3.113</v>
@@ -9041,7 +8942,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B267" s="12">
         <v>2.4140000000000001</v>
@@ -9070,7 +8971,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B268" s="8">
         <v>2.903</v>
@@ -9099,7 +9000,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B269" s="12">
         <v>3.819</v>
@@ -9128,7 +9029,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B270" s="8">
         <v>3.698</v>
@@ -9157,7 +9058,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B271" s="12">
         <v>3.653</v>
@@ -9186,7 +9087,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B272" s="8">
         <v>3.1760000000000002</v>
@@ -9215,7 +9116,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B273" s="12">
         <v>2.8980000000000001</v>
@@ -9244,7 +9145,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B274" s="8">
         <v>4</v>
@@ -9273,7 +9174,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B275" s="12">
         <v>2.7589999999999999</v>
@@ -9302,7 +9203,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B276" s="8">
         <v>3.5910000000000002</v>
@@ -9331,7 +9232,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B277" s="12">
         <v>3.0409999999999999</v>
@@ -9360,7 +9261,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B278" s="8">
         <v>3.3010000000000002</v>
@@ -9389,7 +9290,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B279" s="12">
         <v>3.38</v>
@@ -9418,7 +9319,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B280" s="8">
         <v>3</v>
@@ -9447,7 +9348,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B281" s="12">
         <v>3</v>
@@ -9476,7 +9377,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B282" s="8">
         <v>3.3610000000000002</v>
@@ -9505,7 +9406,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B283" s="12">
         <v>3.38</v>
@@ -9534,7 +9435,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B284" s="8">
         <v>3.3969999999999998</v>
@@ -9563,7 +9464,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B285" s="12">
         <v>3.3010000000000002</v>
@@ -9592,7 +9493,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B286" s="8">
         <v>3.19</v>
@@ -9621,7 +9522,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B287" s="12">
         <v>3.3969999999999998</v>
@@ -9650,7 +9551,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B288" s="8">
         <v>3.698</v>
@@ -9679,7 +9580,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B289" s="12">
         <v>3.6019999999999999</v>
@@ -9708,7 +9609,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B290" s="8">
         <v>3.1760000000000002</v>
@@ -9737,7 +9638,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B291" s="12">
         <v>3.1760000000000002</v>
@@ -9766,7 +9667,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B292" s="8">
         <v>3.1760000000000002</v>
@@ -9795,7 +9696,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B293" s="12">
         <v>3.5680000000000001</v>
@@ -9824,7 +9725,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B294" s="8">
         <v>3.0590000000000002</v>
@@ -9853,7 +9754,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B295" s="12">
         <v>3.1760000000000002</v>
@@ -9882,7 +9783,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B296" s="8">
         <v>3.0409999999999999</v>
@@ -9911,7 +9812,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B297" s="12">
         <v>3</v>
@@ -9940,7 +9841,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B298" s="8">
         <v>3.4769999999999999</v>
@@ -9969,7 +9870,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B299" s="12">
         <v>3.4769999999999999</v>
@@ -9998,7 +9899,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B300" s="8">
         <v>2.8919999999999999</v>
@@ -10027,7 +9928,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B301" s="12">
         <v>3.113</v>
@@ -10056,7 +9957,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B302" s="8">
         <v>2.8919999999999999</v>
@@ -10085,7 +9986,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B303" s="12">
         <v>3.3969999999999998</v>
@@ -10114,7 +10015,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B304" s="8">
         <v>3.1459999999999999</v>
@@ -10143,7 +10044,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B305" s="12">
         <v>2.8290000000000002</v>
@@ -10172,7 +10073,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B306" s="8">
         <v>3.4769999999999999</v>
@@ -10201,7 +10102,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B307" s="12">
         <v>3</v>
@@ -10230,7 +10131,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B308" s="8">
         <v>1.9770000000000001</v>
@@ -10259,7 +10160,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B309" s="12">
         <v>3</v>
@@ -10288,7 +10189,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B310" s="8">
         <v>2.8119999999999998</v>
@@ -10317,7 +10218,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B311" s="12">
         <v>3.1760000000000002</v>
@@ -10346,7 +10247,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B312" s="8">
         <v>3.1760000000000002</v>
@@ -10375,7 +10276,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B313" s="12">
         <v>3.3010000000000002</v>
@@ -10404,7 +10305,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B314" s="8">
         <v>3.2040000000000002</v>
@@ -10433,7 +10334,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B315" s="12">
         <v>3.3969999999999998</v>
@@ -10462,7 +10363,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B316" s="8">
         <v>3.778</v>
@@ -10491,7 +10392,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B317" s="12">
         <v>3.3010000000000002</v>
@@ -10520,7 +10421,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B318" s="8">
         <v>3.6019999999999999</v>
@@ -10549,7 +10450,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B319" s="12">
         <v>2.8290000000000002</v>
@@ -10578,7 +10479,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B320" s="8">
         <v>3.8260000000000001</v>
@@ -10607,7 +10508,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B321" s="12">
         <v>3.484</v>
@@ -10636,7 +10537,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B322" s="8">
         <v>3.1760000000000002</v>
@@ -10665,7 +10566,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B323" s="12">
         <v>3.3010000000000002</v>
@@ -10694,7 +10595,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B324" s="8">
         <v>3.4470000000000001</v>
@@ -10723,7 +10624,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B325" s="12">
         <v>2.698</v>
@@ -10752,7 +10653,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B326" s="8">
         <v>3.544</v>
@@ -10781,7 +10682,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B327" s="12">
         <v>3.0960000000000001</v>
@@ -10810,7 +10711,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B328" s="8">
         <v>3.3010000000000002</v>
@@ -10839,7 +10740,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B329" s="12">
         <v>3.1779999999999999</v>
@@ -10868,7 +10769,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B330" s="8">
         <v>3.3519999999999999</v>
@@ -10897,7 +10798,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B331" s="12">
         <v>3.113</v>
@@ -10926,7 +10827,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B332" s="8">
         <v>3.4769999999999999</v>
@@ -10955,7 +10856,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B333" s="12">
         <v>3.431</v>
@@ -10984,7 +10885,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B334" s="8">
         <v>3.0209999999999999</v>
@@ -11013,7 +10914,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B335" s="12">
         <v>3.3010000000000002</v>
@@ -11042,7 +10943,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B336" s="8">
         <v>2.423</v>
@@ -11071,7 +10972,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B337" s="12">
         <v>2.98</v>
@@ -11100,7 +11001,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B338" s="8">
         <v>3.875</v>
@@ -11129,7 +11030,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B339" s="12">
         <v>2.9289999999999998</v>
@@ -11158,7 +11059,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B340" s="8">
         <v>3.4769999999999999</v>
@@ -11187,7 +11088,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B341" s="12">
         <v>3.6019999999999999</v>
@@ -11216,7 +11117,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B342" s="8">
         <v>3</v>
@@ -11245,7 +11146,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B343" s="12">
         <v>3.74</v>
@@ -11274,7 +11175,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B344" s="8">
         <v>2.903</v>
@@ -11303,7 +11204,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B345" s="12">
         <v>3.1760000000000002</v>
@@ -11332,7 +11233,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B346" s="8">
         <v>3.3010000000000002</v>
@@ -11361,7 +11262,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B347" s="12">
         <v>2.9540000000000002</v>
@@ -11390,7 +11291,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B348" s="8">
         <v>3.13</v>
@@ -11419,7 +11320,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B349" s="12">
         <v>3.3010000000000002</v>
@@ -11448,7 +11349,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B350" s="8">
         <v>3.0960000000000001</v>
@@ -11477,7 +11378,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B351" s="12">
         <v>3.1760000000000002</v>
@@ -11506,7 +11407,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B352" s="8">
         <v>3.3010000000000002</v>
@@ -11535,7 +11436,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B353" s="12">
         <v>3.3540000000000001</v>
@@ -11564,7 +11465,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B354" s="8">
         <v>3.6019999999999999</v>
@@ -11593,7 +11494,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B355" s="12">
         <v>3.1760000000000002</v>
@@ -11622,7 +11523,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B356" s="8">
         <v>3.1760000000000002</v>
@@ -11651,7 +11552,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B357" s="12">
         <v>3.3010000000000002</v>
@@ -11680,7 +11581,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B358" s="8">
         <v>3.3010000000000002</v>
@@ -11709,7 +11610,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B359" s="12">
         <v>3.544</v>
@@ -11738,7 +11639,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B360" s="8">
         <v>3.3010000000000002</v>
@@ -11767,7 +11668,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B361" s="12">
         <v>3.4980000000000002</v>
@@ -11796,7 +11697,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B362" s="8">
         <v>2.4769999999999999</v>
@@ -11825,7 +11726,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B363" s="12">
         <v>3.4769999999999999</v>
@@ -11854,7 +11755,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B364" s="8">
         <v>3.653</v>
@@ -11883,7 +11784,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B365" s="12">
         <v>3.6019999999999999</v>
